--- a/COOP_Calendar_2025-09.xlsx
+++ b/COOP_Calendar_2025-09.xlsx
@@ -616,42 +616,42 @@
       <c r="B5" s="7" t="n"/>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>Hailey Martinez
-George Robinson
-Yara Baker
-Alt: Victor Phillips</t>
+          <t>Akshainie Kamma
+Sathvik Chintha
+Bella Zhang
+Alt: Aryan Rapolu</t>
         </is>
       </c>
       <c r="D5" s="12" t="inlineStr">
         <is>
-          <t>Laura Collins
-Eli Robinson
-Ian Collins
-Alt: Fiona Scott</t>
+          <t>Akshaya Daamudi
+Nadine Khatum
+Arjun Lakkireddy
+Alt: Samantha Zhang</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr">
         <is>
-          <t>Paula Garcia
-Tina Rodriguez
-Victor Phillips
-Alt: Victor Martinez</t>
+          <t>Maitri Sharma
+Amber Lin
+Pranav Malaraju
+Alt: Nakshatra Naidu</t>
         </is>
       </c>
       <c r="F5" s="12" t="inlineStr">
         <is>
-          <t>Ethan Martinez
-Faith Turner
-Nina Perez
-Alt: Diana Garcia</t>
+          <t>Daksha swaminathan Ashwath Athrey
+Suhani Gagrani
+Samantha Zhang
+Alt: Hasini Murali</t>
         </is>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
-          <t>Chris Sanchez
-Quinn Rodriguez
-Noah Nguyen
-Alt: Zane Sanchez</t>
+          <t>Aryan Rapolu
+Robert Mosley
+Anirudh Puvvada
+Alt: Nakshatra Naidu</t>
         </is>
       </c>
       <c r="H5" s="10" t="n"/>
@@ -665,42 +665,42 @@
       <c r="B6" s="7" t="n"/>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>Oscar Patel
-Victor Martinez
-Michael Hall
-Alt: George Wright</t>
+          <t>Archana Kaimal
+Bhuvan Teja Mantrala
+Anisha Saravanan
+Alt: Rilyn Royer</t>
         </is>
       </c>
       <c r="D6" s="12" t="inlineStr">
         <is>
-          <t>Bella Hernandez
-Chris Lee
-Jasmine Carter
-Alt: Michael Walker</t>
+          <t>Manit Singh
+Abhi Mora
+Varun Bhadurgatte Nagaraj
+Alt: Keall French</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>Gavin Young
-Wendy Phillips
-George Wright
-Alt: Michael Clark</t>
+          <t>Rilyn Royer
+Anisha Saravanan
+Bhuvan Teja Mantrala
+Alt: Archana Kaimal</t>
         </is>
       </c>
       <c r="F6" s="12" t="inlineStr">
         <is>
-          <t>Yara Allen
-Laura Hall
-Caleb Lopez
-Alt: Kevin Scott</t>
+          <t>Sonia Joseph
+Ridhima Reddy
+Keall French
+Alt: Shreya Rajavel</t>
         </is>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
-          <t>Michael Clark
-Tina Campbell
-Wendy Hill
-Alt: Caleb Turner</t>
+          <t>Archana Kaimal
+Rilyn Royer
+Anisha Saravanan
+Alt: Bhuvan Teja Mantrala</t>
         </is>
       </c>
       <c r="H6" s="10" t="n"/>
@@ -712,46 +712,25 @@
         </is>
       </c>
       <c r="B7" s="7" t="n"/>
-      <c r="C7" s="11" t="inlineStr">
-        <is>
-          <t>Kyle Mitchell
-Diana Garcia
-Hannah Nelson
-Alt: Julia Roberts</t>
-        </is>
-      </c>
+      <c r="C7" s="11" t="inlineStr"/>
       <c r="D7" s="12" t="inlineStr">
         <is>
-          <t>Laura Patel
-Noah Brown
-Nina Wright
-Alt: Victor Hall</t>
-        </is>
-      </c>
-      <c r="E7" s="11" t="inlineStr">
-        <is>
-          <t>Zane Sanchez
-Gavin Hernandez
-Julia Carter
-Alt: Julia Roberts</t>
-        </is>
-      </c>
+          <t>Rajath Shivakumar
+Varun Murugan
+Sofia Francis
+Alt: Ananya Chakka</t>
+        </is>
+      </c>
+      <c r="E7" s="11" t="inlineStr"/>
       <c r="F7" s="12" t="inlineStr">
         <is>
-          <t>Yara Stewart
-Victor Hall
-Ian Robinson
-Alt: Julia Roberts</t>
-        </is>
-      </c>
-      <c r="G7" s="11" t="inlineStr">
-        <is>
-          <t>Julia Roberts
-Mia Johnson
-Xander Phillips
-Alt: George Parker</t>
-        </is>
-      </c>
+          <t>Ananya Chakka
+Nina Konkle
+Aanya Sahir
+Alt: Danielle Mecteaux</t>
+        </is>
+      </c>
+      <c r="G7" s="11" t="inlineStr"/>
       <c r="H7" s="10" t="n"/>
     </row>
     <row r="8">
@@ -763,42 +742,42 @@
       <c r="B8" s="7" t="n"/>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>Michael Walker
-Zane Wright
-Eli King
-Alt: Ethan Garcia</t>
+          <t>Vaddula, Sai
+Anishka Vasanthu
+Rayna Badarpura
+Alt: Mariyam Khazi</t>
         </is>
       </c>
       <c r="D8" s="12" t="inlineStr">
         <is>
-          <t>Sam Lee
-Hailey Scott
-Eli Rodriguez
-Alt: Jasmine Campbell</t>
+          <t>Raza Inam
+Seejal Atukula
+Srinidhi Inam
+Alt: Isabella Moreno Martinez</t>
         </is>
       </c>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>Ethan Garcia
-Wendy Collins
-Isaac Evans
-Alt: Yara Scott</t>
+          <t>Mariyam Khazi
+Bezan Viccaji
+Isabella Moreno Martinez
+Alt: Shreya Rajavel</t>
         </is>
       </c>
       <c r="F8" s="12" t="inlineStr">
         <is>
-          <t>Isaac Martinez
-Wendy Roberts
-Rachel Evans
-Alt: Jasmine Campbell</t>
+          <t>Hasini Murali
+Shreya Rajavel
+Ankita Menon
+Alt: Vaddula, Sai</t>
         </is>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
-          <t>Caleb Turner
-Faith Nguyen
-Jasmine Campbell
-Alt: Yara Scott</t>
+          <t>Rayna Badarpura
+Vaddula, Sai
+Anishka Vasanthu
+Alt: Manit Singh</t>
         </is>
       </c>
       <c r="H8" s="10" t="n"/>
@@ -849,42 +828,42 @@
       <c r="B11" s="10" t="n"/>
       <c r="C11" s="12" t="inlineStr">
         <is>
-          <t>Fiona Lopez
-Fiona Scott
-Tina Scott
-Alt: Xander King</t>
+          <t>Sona Rao
+Neeki Samadi
+Brati Dhakal
+Alt: Lutfiyya Rida Bint Masud</t>
         </is>
       </c>
       <c r="D11" s="11" t="inlineStr">
         <is>
-          <t>George Parker
-Zane Parker
-Yara Scott
-Alt: Xander Mitchell</t>
+          <t>Nakshatra Naidu
+Akshainie Kamma
+Sathvik Chintha
+Alt: Bella Zhang</t>
         </is>
       </c>
       <c r="E11" s="12" t="inlineStr">
         <is>
-          <t>Laura Hernandez
-Kevin Scott
-Xander King
-Alt: Zane Clark</t>
+          <t>Juhi Uperam
+Anushka Ganessan
+Lutfiyya Rida Bint Masud
+Alt: Samantha Gamino</t>
         </is>
       </c>
       <c r="F11" s="11" t="inlineStr">
         <is>
-          <t>Xander Mitchell
-Nina Walker
-Victor Sanchez
-Alt: Gavin Johnson</t>
+          <t>Bella Zhang
+Maitri Sharma
+Pranav Malaraju
+Alt: Amber Lin</t>
         </is>
       </c>
       <c r="G11" s="12" t="inlineStr">
         <is>
-          <t>Zane Clark
-Nina Sanchez
-Bella Roberts
-Alt: Gavin Johnson</t>
+          <t>Samantha Gamino
+Raza Inam
+Srinidhi Inam
+Alt: Seejal Atukula</t>
         </is>
       </c>
       <c r="H11" s="10" t="n"/>
@@ -898,42 +877,42 @@
       <c r="B12" s="10" t="n"/>
       <c r="C12" s="12" t="inlineStr">
         <is>
-          <t>Julia Baker
-Kevin Clark
-Gavin Johnson
-Alt: Michael Walker</t>
+          <t>Hasit Baaru
+Mack Moore
+Ashwini Yeluru
+Alt: Aasrita Pichikala</t>
         </is>
       </c>
       <c r="D12" s="11" t="inlineStr">
         <is>
-          <t>Yara Lewis
-Zane Wright
-Oscar Patel
-Alt: Victor Martinez</t>
+          <t>Bhuvan Teja Mantrala
+Archana Kaimal
+Rilyn Royer
+Alt: Anisha Saravanan</t>
         </is>
       </c>
       <c r="E12" s="12" t="inlineStr">
         <is>
-          <t>Hannah Nelson
-Michael Walker
-Sam Lee
-Alt: Jasmine Carter</t>
+          <t>Isabelle Ngo
+Aasrita Pichikala
+Rishi Sanchaniya
+Alt: Abhi Mora</t>
         </is>
       </c>
       <c r="F12" s="11" t="inlineStr">
         <is>
-          <t>Michael Hall
-Victor Martinez
-Paula Garcia
-Alt: Tina Rodriguez</t>
+          <t>Anisha Saravanan
+Bhuvan Teja Mantrala
+Rilyn Royer
+Alt: Archana Kaimal</t>
         </is>
       </c>
       <c r="G12" s="12" t="inlineStr">
         <is>
-          <t>Jasmine Carter
-Chris Lee
-Bella Hernandez
-Alt: Isaac Evans</t>
+          <t>Abhi Mora
+Manit Singh
+Varun Bhadurgatte Nagaraj
+Alt: Bezan Viccaji</t>
         </is>
       </c>
       <c r="H12" s="10" t="n"/>
@@ -947,42 +926,28 @@
       <c r="B13" s="10" t="n"/>
       <c r="C13" s="12" t="inlineStr">
         <is>
-          <t>Isaac Young
-Laura Collins
-Laura Patel
-Alt: Noah Brown</t>
-        </is>
-      </c>
-      <c r="D13" s="11" t="inlineStr">
-        <is>
-          <t>Kyle Mitchell
-Diana Garcia
-Gavin Young
-Alt: Tina Rodriguez</t>
-        </is>
-      </c>
+          <t>Karthik Jai
+Danielle Mecteaux
+Varun Murugan
+Alt: Sofia Francis</t>
+        </is>
+      </c>
+      <c r="D13" s="11" t="inlineStr"/>
       <c r="E13" s="12" t="inlineStr">
         <is>
-          <t>Noah Brown
-Nina Wright
-Gavin Hernandez
-Alt: Caleb Lopez</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Tina Rodriguez
-Julia Carter
-Zane Sanchez
-Alt: Faith Turner</t>
-        </is>
-      </c>
+          <t>Sofia Francis
+Rajath Shivakumar
+Ananya Chakka
+Alt: Aanya Sahir</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr"/>
       <c r="G13" s="12" t="inlineStr">
         <is>
-          <t>Caleb Lopez
-Laura Hall
-Victor Hall
-Alt: Ian Robinson</t>
+          <t>Aanya Sahir
+Nina Konkle
+Karthik Jai
+Alt: Danielle Mecteaux</t>
         </is>
       </c>
       <c r="H13" s="10" t="n"/>
@@ -996,42 +961,42 @@
       <c r="B14" s="10" t="n"/>
       <c r="C14" s="12" t="inlineStr">
         <is>
-          <t>Eli Rodriguez
-Hailey Scott
-Victor Phillips
-Alt: Yara Stewart</t>
+          <t>Arjun Lakkireddy
+Nadine Khatum
+Akshaya Daamudi
+Alt: Seejal Atukula</t>
         </is>
       </c>
       <c r="D14" s="11" t="inlineStr">
         <is>
-          <t>Yara Baker
-Eli King
-Ian Collins
-Alt: Ethan Garcia</t>
+          <t>Seejal Atukula
+Bezan Viccaji
+Isabella Moreno Martinez
+Alt: Mariyam Khazi</t>
         </is>
       </c>
       <c r="E14" s="12" t="inlineStr">
         <is>
-          <t>Yara Stewart
-Rachel Evans
-Wendy Roberts
-Alt: Isaac Martinez</t>
+          <t>Mariyam Khazi
+Daksha swaminathan Ashwath Athrey
+Ridhima Reddy
+Alt: Suhani Gagrani</t>
         </is>
       </c>
       <c r="F14" s="11" t="inlineStr">
         <is>
-          <t>Wendy Collins
-Ethan Garcia
-Yara Allen
-Alt: Eli Robinson</t>
+          <t>Shreya Rajavel
+Sonia Joseph
+Keall French
+Alt: Rayna Badarpura</t>
         </is>
       </c>
       <c r="G14" s="12" t="inlineStr">
         <is>
-          <t>Isaac Martinez
-Noah Nguyen
-Jasmine Campbell
-Alt: Wendy Phillips</t>
+          <t>Suhani Gagrani
+Samantha Zhang
+Hasini Murali
+Alt: Ankita Menon</t>
         </is>
       </c>
       <c r="H14" s="10" t="n"/>
@@ -1082,42 +1047,42 @@
       <c r="B17" s="10" t="n"/>
       <c r="C17" s="11" t="inlineStr">
         <is>
-          <t>George Robinson
-Hailey Martinez
-Faith Turner
-Alt: Michael Clark</t>
+          <t>Amber Lin
+Aryan Rapolu
+Robert Mosley
+Alt: Anirudh Puvvada</t>
         </is>
       </c>
       <c r="D17" s="12" t="inlineStr">
         <is>
-          <t>Eli Robinson
-Nina Perez
-Ethan Martinez
-Alt: Tina Campbell</t>
+          <t>Ankita Menon
+Sona Rao
+Neeki Samadi
+Alt: Brati Dhakal</t>
         </is>
       </c>
       <c r="E17" s="11" t="inlineStr">
         <is>
-          <t>Michael Clark
-Quinn Rodriguez
-Chris Sanchez
-Alt: George Parker</t>
+          <t>Anirudh Puvvada
+Nakshatra Naidu
+Akshainie Kamma
+Alt: Sathvik Chintha</t>
         </is>
       </c>
       <c r="F17" s="12" t="inlineStr">
         <is>
-          <t>Tina Campbell
-Fiona Scott
-Tina Scott
-Alt: Fiona Lopez</t>
+          <t>Brati Dhakal
+Juhi Uperam
+Lutfiyya Rida Bint Masud
+Alt: Anushka Ganessan</t>
         </is>
       </c>
       <c r="G17" s="11" t="inlineStr">
         <is>
-          <t>George Parker
-George Wright
-Wendy Phillips
-Alt: Ian Robinson</t>
+          <t>Sathvik Chintha
+Pranav Malaraju
+Bella Zhang
+Alt: Maitri Sharma</t>
         </is>
       </c>
       <c r="H17" s="10" t="n"/>
@@ -1131,42 +1096,42 @@
       <c r="B18" s="10" t="n"/>
       <c r="C18" s="11" t="inlineStr">
         <is>
-          <t>Caleb Turner
-Wendy Hill
-Faith Nguyen
-Alt: Fiona Lopez</t>
+          <t>Archana Kaimal
+Bhuvan Teja Mantrala
+Anisha Saravanan
+Alt: Rilyn Royer</t>
         </is>
       </c>
       <c r="D18" s="12" t="inlineStr">
         <is>
-          <t>Isaac Evans
-Zane Parker
-Yara Scott
-Alt: Kevin Scott</t>
+          <t>Ashwini Yeluru
+Hasit Baaru
+Mack Moore
+Alt: Isabelle Ngo</t>
         </is>
       </c>
       <c r="E18" s="11" t="inlineStr">
         <is>
-          <t>Gavin Johnson
-Fiona Lopez
-Yara Lewis
-Alt: Kevin Scott</t>
+          <t>Rilyn Royer
+Archana Kaimal
+Anisha Saravanan
+Alt: Bhuvan Teja Mantrala</t>
         </is>
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
-          <t>Kevin Scott
-Mia Johnson
-Julia Roberts
-Alt: Laura Hernandez</t>
+          <t>Isabelle Ngo
+Rishi Sanchaniya
+Aasrita Pichikala
+Alt: Bezan Viccaji</t>
         </is>
       </c>
       <c r="G18" s="11" t="inlineStr">
         <is>
-          <t>Bella Roberts
-Xander Phillips
-Kevin Clark
-Alt: Nina Walker</t>
+          <t>Bhuvan Teja Mantrala
+Archana Kaimal
+Rilyn Royer
+Alt: Anisha Saravanan</t>
         </is>
       </c>
       <c r="H18" s="10" t="n"/>
@@ -1178,46 +1143,25 @@
         </is>
       </c>
       <c r="B19" s="10" t="n"/>
-      <c r="C19" s="11" t="inlineStr">
-        <is>
-          <t>Ian Robinson
-Julia Baker
-Isaac Young
-Alt: Xander Mitchell</t>
-        </is>
-      </c>
+      <c r="C19" s="11" t="inlineStr"/>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>Nina Walker
-Victor Sanchez
-Xander Mitchell
-Alt: Nina Sanchez</t>
-        </is>
-      </c>
-      <c r="E19" s="11" t="inlineStr">
-        <is>
-          <t>Nina Sanchez
-Gavin Young
-Diana Garcia
-Alt: Kyle Mitchell</t>
-        </is>
-      </c>
+          <t>Danielle Mecteaux
+Varun Murugan
+Ananya Chakka
+Alt: Sofia Francis</t>
+        </is>
+      </c>
+      <c r="E19" s="11" t="inlineStr"/>
       <c r="F19" s="12" t="inlineStr">
         <is>
-          <t>Laura Collins
-Laura Patel
-Gavin Hernandez
-Alt: Yara Stewart</t>
-        </is>
-      </c>
-      <c r="G19" s="11" t="inlineStr">
-        <is>
-          <t>Kyle Mitchell
-Hannah Nelson
-Michael Hall
-Alt: Paula Garcia</t>
-        </is>
-      </c>
+          <t>Rajath Shivakumar
+Sofia Francis
+Aanya Sahir
+Alt: Nina Konkle</t>
+        </is>
+      </c>
+      <c r="G19" s="11" t="inlineStr"/>
       <c r="H19" s="10" t="n"/>
     </row>
     <row r="20">
@@ -1229,42 +1173,42 @@
       <c r="B20" s="10" t="n"/>
       <c r="C20" s="11" t="inlineStr">
         <is>
-          <t>Laura Hernandez
-Xander King
-Zane Clark
-Alt: Hailey Scott</t>
+          <t>Rayna Badarpura
+Anishka Vasanthu
+Vaddula, Sai
+Alt: Akshaya Daamudi</t>
         </is>
       </c>
       <c r="D20" s="12" t="inlineStr">
         <is>
-          <t>Victor Phillips
-Eli Rodriguez
-Hailey Scott
-Alt: Yara Stewart</t>
+          <t>Nadine Khatum
+Akshaya Daamudi
+Arjun Lakkireddy
+Alt: Isabella Moreno Martinez</t>
         </is>
       </c>
       <c r="E20" s="11" t="inlineStr">
         <is>
-          <t>Yara Baker
-Zane Wright
-Ian Collins
-Alt: Eli King</t>
+          <t>Seejal Atukula
+Isabella Moreno Martinez
+Bezan Viccaji
+Alt: Ridhima Reddy</t>
         </is>
       </c>
       <c r="F20" s="12" t="inlineStr">
         <is>
-          <t>Sam Lee
-Yara Stewart
-Rachel Evans
-Alt: Wendy Roberts</t>
+          <t>Daksha swaminathan Ashwath Athrey
+Ridhima Reddy
+Mariyam Khazi
+Alt: Keall French</t>
         </is>
       </c>
       <c r="G20" s="11" t="inlineStr">
         <is>
-          <t>Eli King
-Michael Walker
-Yara Allen
-Alt: Wendy Collins</t>
+          <t>Sonia Joseph
+Keall French
+Shreya Rajavel
+Alt: Abhi Mora</t>
         </is>
       </c>
       <c r="H20" s="10" t="n"/>
@@ -1315,42 +1259,42 @@
       <c r="B23" s="10" t="n"/>
       <c r="C23" s="12" t="inlineStr">
         <is>
-          <t>Oscar Patel
-Wendy Roberts
-Jasmine Campbell
-Alt: Noah Nguyen</t>
+          <t>Anushka Ganessan
+Samantha Gamino
+Hasini Murali
+Alt: Srinidhi Inam</t>
         </is>
       </c>
       <c r="D23" s="11" t="inlineStr">
         <is>
-          <t>Victor Martinez
-Zane Sanchez
-Tina Rodriguez
-Alt: Paula Garcia</t>
+          <t>Maitri Sharma
+Aryan Rapolu
+Amber Lin
+Alt: Robert Mosley</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
         <is>
-          <t>Noah Nguyen
-Chris Lee
-Zane Clark
-Alt: Xander King</t>
+          <t>Raza Inam
+Samantha Zhang
+Srinidhi Inam
+Alt: Suhani Gagrani</t>
         </is>
       </c>
       <c r="F23" s="11" t="inlineStr">
         <is>
-          <t>Paula Garcia
-Isaac Martinez
-Faith Turner
-Alt: Hailey Martinez</t>
+          <t>Robert Mosley
+Nakshatra Naidu
+Anirudh Puvvada
+Alt: Akshainie Kamma</t>
         </is>
       </c>
       <c r="G23" s="12" t="inlineStr">
         <is>
-          <t>Xander King
-Laura Hernandez
-Eli Robinson
-Alt: Ethan Martinez</t>
+          <t>Suhani Gagrani
+Ankita Menon
+Neeki Samadi
+Alt: Sona Rao</t>
         </is>
       </c>
       <c r="H23" s="10" t="n"/>
@@ -1364,42 +1308,42 @@
       <c r="B24" s="10" t="n"/>
       <c r="C24" s="12" t="inlineStr">
         <is>
-          <t>Wendy Collins
-Caleb Lopez
-Laura Hall
-Alt: Jasmine Carter</t>
+          <t>Varun Bhadurgatte Nagaraj
+Manit Singh
+Abhi Mora
+Alt: Ashwini Yeluru</t>
         </is>
       </c>
       <c r="D24" s="11" t="inlineStr">
         <is>
-          <t>Caleb Turner
-Wendy Hill
-Michael Clark
-Alt: Tina Campbell</t>
+          <t>Anisha Saravanan
+Rilyn Royer
+Bhuvan Teja Mantrala
+Alt: Archana Kaimal</t>
         </is>
       </c>
       <c r="E24" s="12" t="inlineStr">
         <is>
-          <t>Bella Hernandez
-Jasmine Carter
-Nina Perez
-Alt: Yara Scott</t>
+          <t>Mack Moore
+Hasit Baaru
+Ashwini Yeluru
+Alt: Rishi Sanchaniya</t>
         </is>
       </c>
       <c r="F24" s="11" t="inlineStr">
         <is>
-          <t>Tina Campbell
-George Wright
-Wendy Phillips
-Alt: Victor Hall</t>
+          <t>Archana Kaimal
+Rilyn Royer
+Anisha Saravanan
+Alt: Bhuvan Teja Mantrala</t>
         </is>
       </c>
       <c r="G24" s="12" t="inlineStr">
         <is>
-          <t>Zane Parker
-Yara Scott
-Isaac Evans
-Alt: Chris Sanchez</t>
+          <t>Aasrita Pichikala
+Rishi Sanchaniya
+Isabelle Ngo
+Alt: Bezan Viccaji</t>
         </is>
       </c>
       <c r="H24" s="10" t="n"/>
@@ -1413,42 +1357,28 @@
       <c r="B25" s="10" t="n"/>
       <c r="C25" s="12" t="inlineStr">
         <is>
-          <t>Noah Brown
-Nina Wright
-Victor Hall
-Alt: Ian Robinson</t>
-        </is>
-      </c>
-      <c r="D25" s="11" t="inlineStr">
-        <is>
-          <t>Julia Carter
-Chris Sanchez
-Mia Johnson
-Alt: Julia Roberts</t>
-        </is>
-      </c>
+          <t>Karthik Jai
+Nina Konkle
+Danielle Mecteaux
+Alt: Varun Murugan</t>
+        </is>
+      </c>
+      <c r="D25" s="11" t="inlineStr"/>
       <c r="E25" s="12" t="inlineStr">
         <is>
-          <t>Ian Robinson
-Quinn Rodriguez
-Julia Roberts
-Alt: Ethan Garcia</t>
-        </is>
-      </c>
-      <c r="F25" s="11" t="inlineStr">
-        <is>
-          <t>George Parker
-Xander Phillips
-Kevin Scott
-Alt: Ethan Garcia</t>
-        </is>
-      </c>
+          <t>Varun Murugan
+Ananya Chakka
+Rajath Shivakumar
+Alt: Aanya Sahir</t>
+        </is>
+      </c>
+      <c r="F25" s="11" t="inlineStr"/>
       <c r="G25" s="12" t="inlineStr">
         <is>
-          <t>Ethan Garcia
-Isaac Young
-Victor Sanchez
-Alt: Nina Walker</t>
+          <t>Aanya Sahir
+Sofia Francis
+Karthik Jai
+Alt: Danielle Mecteaux</t>
         </is>
       </c>
       <c r="H25" s="10" t="n"/>
@@ -1462,42 +1392,42 @@
       <c r="B26" s="10" t="n"/>
       <c r="C26" s="12" t="inlineStr">
         <is>
-          <t>Nina Sanchez
-Kevin Clark
-Julia Baker
-Alt: Faith Nguyen</t>
+          <t>Vaddula, Sai
+Rayna Badarpura
+Anishka Vasanthu
+Alt: Nadine Khatum</t>
         </is>
       </c>
       <c r="D26" s="11" t="inlineStr">
         <is>
-          <t>Faith Nguyen
-Hailey Martinez
-Xander Mitchell
-Alt: Nina Walker</t>
+          <t>Akshaya Daamudi
+Seejal Atukula
+Bezan Viccaji
+Alt: Isabella Moreno Martinez</t>
         </is>
       </c>
       <c r="E26" s="12" t="inlineStr">
         <is>
-          <t>George Robinson
-Nina Walker
-Fiona Lopez
-Alt: Fiona Scott</t>
+          <t>Nadine Khatum
+Arjun Lakkireddy
+Isabella Moreno Martinez
+Alt: Mariyam Khazi</t>
         </is>
       </c>
       <c r="F26" s="11" t="inlineStr">
         <is>
-          <t>Yara Lewis
-Gavin Johnson
-Tina Scott
-Alt: Bella Roberts</t>
+          <t>Ridhima Reddy
+Mariyam Khazi
+Keall French
+Alt: Shreya Rajavel</t>
         </is>
       </c>
       <c r="G26" s="12" t="inlineStr">
         <is>
-          <t>Fiona Scott
-Bella Roberts
-Victor Phillips
-Alt: Hailey Scott</t>
+          <t>Daksha swaminathan Ashwath Athrey
+Sonia Joseph
+Shreya Rajavel
+Alt: Manit Singh</t>
         </is>
       </c>
       <c r="H26" s="10" t="n"/>
@@ -1540,18 +1470,18 @@
       <c r="B29" s="10" t="n"/>
       <c r="C29" s="11" t="inlineStr">
         <is>
-          <t>Ethan Martinez
-Eli Rodriguez
-Zane Wright
-Alt: Yara Baker</t>
+          <t>Akshainie Kamma
+Pranav Malaraju
+Bella Zhang
+Alt: Sathvik Chintha</t>
         </is>
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>Diana Garcia
-Ian Collins
-Rachel Evans
-Alt: Laura Collins</t>
+          <t>Sona Rao
+Juhi Uperam
+Lutfiyya Rida Bint Masud
+Alt: Brati Dhakal</t>
         </is>
       </c>
       <c r="E29" s="7" t="n"/>
@@ -1568,18 +1498,18 @@
       <c r="B30" s="10" t="n"/>
       <c r="C30" s="11" t="inlineStr">
         <is>
-          <t>Gavin Young
-Michael Hall
-Oscar Patel
-Alt: Tina Rodriguez</t>
+          <t>Bhuvan Teja Mantrala
+Archana Kaimal
+Rilyn Royer
+Alt: Anisha Saravanan</t>
         </is>
       </c>
       <c r="D30" s="12" t="inlineStr">
         <is>
-          <t>Sam Lee
-Yara Allen
-Michael Walker
-Alt: Hannah Nelson</t>
+          <t>Manit Singh
+Abhi Mora
+Varun Bhadurgatte Nagaraj
+Alt: Mack Moore</t>
         </is>
       </c>
       <c r="E30" s="7" t="n"/>
@@ -1594,20 +1524,13 @@
         </is>
       </c>
       <c r="B31" s="10" t="n"/>
-      <c r="C31" s="11" t="inlineStr">
-        <is>
-          <t>Gavin Hernandez
-Hannah Nelson
-Kyle Mitchell
-Alt: Michael Clark</t>
-        </is>
-      </c>
+      <c r="C31" s="11" t="inlineStr"/>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>Yara Stewart
-Laura Collins
-Laura Patel
-Alt: Laura Hall</t>
+          <t>Nina Konkle
+Danielle Mecteaux
+Ananya Chakka
+Alt: Rajath Shivakumar</t>
         </is>
       </c>
       <c r="E31" s="7" t="n"/>
@@ -1624,18 +1547,18 @@
       <c r="B32" s="10" t="n"/>
       <c r="C32" s="11" t="inlineStr">
         <is>
-          <t>Hailey Scott
-Yara Baker
-Eli King
-Alt: Caleb Lopez</t>
+          <t>Anishka Vasanthu
+Rayna Badarpura
+Vaddula, Sai
+Alt: Akshaya Daamudi</t>
         </is>
       </c>
       <c r="D32" s="12" t="inlineStr">
         <is>
-          <t>Victor Hall
-Jasmine Campbell
-Wendy Roberts
-Alt: Zane Sanchez</t>
+          <t>Hasini Murali
+Samantha Zhang
+Raza Inam
+Alt: Srinidhi Inam</t>
         </is>
       </c>
       <c r="E32" s="7" t="n"/>
